--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a0ca4fbcb46ad72/桌面/IOL/generator_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_AD4DBB64A54DDB1B405E38C3451D34154F90DF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28BA27A-AE7F-45FB-A701-4EAE60163FBD}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4DBB64A54DDB1B405E38C3451D34154F90DF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E5DB9F-2741-4893-BD4A-D5FA6B4D3361}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,51 @@
   </si>
   <si>
     <t>文16教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOL2000N-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy Wu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOL2000N-003</t>
+  </si>
+  <si>
+    <t>TOL2000N-004</t>
+  </si>
+  <si>
+    <t>TOL2000N-005</t>
+  </si>
+  <si>
+    <t>文17教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博雅教學館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綜合教學館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同教學館</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,6 +156,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -406,6 +455,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a0ca4fbcb46ad72/桌面/IOL/generator_script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4DBB64A54DDB1B405E38C3451D34154F90DF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E5DB9F-2741-4893-BD4A-D5FA6B4D3361}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4DBB64A54DDB1B405E38C3451D34154F90DF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D71C46-CDB4-4F09-9177-38DE981CE2CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,10 +428,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
